--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs.sharepoint.com/sites/CSEIProject-Nord_H2ub/Delte dokumenter/General/d--project_work/d--wp_4/02_Spine/Maersk_Example_Dana_upload/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\Maersk_Example\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="446" documentId="13_ncr:1_{EA7C0B45-0DC9-4B84-A557-34A4BA8AF649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E78DEDFD-BDFF-47FE-BAD9-081828B8B833}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1810BB22-5FAE-41B2-9D17-2EF3CE441DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="97">
   <si>
     <t>Object_Class_Name</t>
   </si>
@@ -317,6 +317,27 @@
   </si>
   <si>
     <t>pipeline_storage_e-methanol</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>report__output</t>
+  </si>
+  <si>
+    <t>unit_flow</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>model_report</t>
+  </si>
+  <si>
+    <t>connection_flow</t>
   </si>
 </sst>
 </file>
@@ -379,10 +400,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,9 +771,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0FFD16-F425-46EA-BE6D-7390D00C1F7D}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -804,6 +823,14 @@
         <v>58</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -811,9 +838,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECF8EFB-268E-462A-9798-31D873EE5EEE}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -922,6 +951,57 @@
       </c>
       <c r="E6" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1315,7 +1395,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1393,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8198CF-B8BA-4E3C-BDFC-CD95322E57D9}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2037,7 +2117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23586A81-B41F-419A-9CC9-DCB1E38C3013}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2058,7 +2140,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2066,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2074,7 +2156,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2082,7 +2164,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2090,7 +2172,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>250</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2151,6 +2233,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
@@ -2159,15 +2250,6 @@
     <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2382,6 +2464,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2392,14 +2482,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D886F-66F0-418B-866D-5835753D7F21}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
+    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D886F-66F0-418B-866D-5835753D7F21}"/>
 </file>
--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\Maersk_Example\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1810BB22-5FAE-41B2-9D17-2EF3CE441DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFD4AEF-1C80-4751-9EC4-653C8BA7E1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
@@ -2118,7 +2118,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2148,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2233,26 +2233,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B227512146E4794EA3DFC577899B9574" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="102f62f00864d00911f0d8ac363b6ca3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edf6ee90-b14e-4711-bf2d-b1beadcb41f5" xmlns:ns3="588af687-a5f4-46dc-9eef-8f2d5661ca5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3a87685c95b9a647e91677dfbca7cf1" ns2:_="" ns3:_="">
     <xsd:import namespace="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
@@ -2463,10 +2443,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D886F-66F0-418B-866D-5835753D7F21}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
+    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2483,20 +2494,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D886F-66F0-418B-866D-5835753D7F21}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
-    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\Maersk_Example\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/dahe23af_student_cbs_dk/Documents/Dokumente/CSEI/.spinetoolbox/Projekte/Maersk_Example_Dana/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1810BB22-5FAE-41B2-9D17-2EF3CE441DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="13_ncr:1_{EA7C0B45-0DC9-4B84-A557-34A4BA8AF649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97F680D-FB01-4EDC-B0ED-633D9BEEFBC4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>Object_Class_Name</t>
   </si>
@@ -319,25 +319,10 @@
     <t>pipeline_storage_e-methanol</t>
   </si>
   <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>report__output</t>
-  </si>
-  <si>
-    <t>unit_flow</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>model_report</t>
-  </si>
-  <si>
-    <t>connection_flow</t>
+    <t>fix_node_state</t>
+  </si>
+  <si>
+    <t>demand</t>
   </si>
 </sst>
 </file>
@@ -771,11 +756,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0FFD16-F425-46EA-BE6D-7390D00C1F7D}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -823,14 +806,6 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -838,11 +813,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECF8EFB-268E-462A-9798-31D873EE5EEE}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -951,57 +924,6 @@
       </c>
       <c r="E6" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1317,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2115,64 +2037,99 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23586A81-B41F-419A-9CC9-DCB1E38C3013}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B6">
-        <v>25</v>
+      <c r="B8">
+        <v>250</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2182,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4937129D-37FF-4EB7-B39E-7B40CC16C5CB}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2195,9 +2152,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
       <c r="B1" t="s">
         <v>74</v>
       </c>
@@ -2207,23 +2161,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2233,28 +2198,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B227512146E4794EA3DFC577899B9574" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="102f62f00864d00911f0d8ac363b6ca3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edf6ee90-b14e-4711-bf2d-b1beadcb41f5" xmlns:ns3="588af687-a5f4-46dc-9eef-8f2d5661ca5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3a87685c95b9a647e91677dfbca7cf1" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B227512146E4794EA3DFC577899B9574" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c9c6ef9b8d882276fe30c6dd0c1581a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edf6ee90-b14e-4711-bf2d-b1beadcb41f5" xmlns:ns3="588af687-a5f4-46dc-9eef-8f2d5661ca5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aa23f772978ed83b7d318f4ad779a11f" ns2:_="" ns3:_="">
     <xsd:import namespace="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
     <xsd:import namespace="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
     <xsd:element name="properties">
@@ -2298,7 +2243,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="162caacc-edf8-42da-adb8-e01fde2280f4" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="162caacc-edf8-42da-adb8-e01fde2280f4" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -2326,7 +2271,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="588af687-a5f4-46dc-9eef-8f2d5661ca5c" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2345,7 +2290,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -2373,8 +2318,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2463,27 +2408,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
-    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D886F-66F0-418B-866D-5835753D7F21}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2710D3A5-EFB6-4955-AC76-E4D1E4456C63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2499,4 +2445,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
+    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\Maersk_Example\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/dahe23af_student_cbs_dk/Documents/Dokumente/GitHub/Nord_H2ub/Spine_Projects/Maersk_Example/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFD4AEF-1C80-4751-9EC4-653C8BA7E1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{CCFD4AEF-1C80-4751-9EC4-653C8BA7E1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3A7ABA5-4CF2-476B-843B-F26346619160}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="104">
   <si>
     <t>Object_Class_Name</t>
   </si>
@@ -338,6 +338,27 @@
   </si>
   <si>
     <t>connection_flow</t>
+  </si>
+  <si>
+    <t>fix_node_state</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>2001-01-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2001-01-01T06:00:00</t>
+  </si>
+  <si>
+    <t>2001-01-01T12:00:00</t>
+  </si>
+  <si>
+    <t>2001-01-01T18:00:00</t>
+  </si>
+  <si>
+    <t>2001-01-02T00:00:00</t>
   </si>
 </sst>
 </file>
@@ -1995,9 +2016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBA0A5B-E4FE-413F-8B3A-7F0B2236AD9D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2115,64 +2134,140 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23586A81-B41F-419A-9CC9-DCB1E38C3013}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>29</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>30</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>150</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8">
+        <v>150</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2182,11 +2277,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4937129D-37FF-4EB7-B39E-7B40CC16C5CB}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2194,36 +2287,44 @@
     <col min="3" max="3" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/dahe23af_student_cbs_dk/Documents/Dokumente/GitHub/Nord_H2ub/Spine_Projects/Maersk_Example/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{CCFD4AEF-1C80-4751-9EC4-653C8BA7E1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3A7ABA5-4CF2-476B-843B-F26346619160}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{CCFD4AEF-1C80-4751-9EC4-653C8BA7E1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{264E148D-9C2B-42C4-872E-7EADC0C8D6AC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="2" r:id="rId1"/>
@@ -2136,7 +2136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23586A81-B41F-419A-9CC9-DCB1E38C3013}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -2153,6 +2153,9 @@
       <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J1" s="2" t="s">
         <v>73</v>
       </c>
@@ -2180,9 +2183,6 @@
       </c>
       <c r="B3">
         <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
       </c>
       <c r="J3" t="s">
         <v>98</v>
@@ -2279,7 +2279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4937129D-37FF-4EB7-B39E-7B40CC16C5CB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2288,6 +2290,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>74</v>
       </c>
@@ -2296,9 +2301,6 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
       <c r="B2" t="s">
         <v>97</v>
       </c>
@@ -2545,6 +2547,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
@@ -2553,15 +2564,6 @@
     <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2584,6 +2586,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2592,12 +2602,4 @@
     <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -2547,15 +2547,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
@@ -2564,6 +2555,15 @@
     <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2586,14 +2586,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2602,4 +2594,12 @@
     <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/dahe23af_student_cbs_dk/Documents/Dokumente/GitHub/Nord_H2ub/Spine_Projects/Maersk_Example/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\Maersk_Example\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{CCFD4AEF-1C80-4751-9EC4-653C8BA7E1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{264E148D-9C2B-42C4-872E-7EADC0C8D6AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD697765-651D-4519-A427-18F04C89FF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="99">
   <si>
     <t>Object_Class_Name</t>
   </si>
@@ -344,21 +344,6 @@
   </si>
   <si>
     <t>demand</t>
-  </si>
-  <si>
-    <t>2001-01-01T00:00:00</t>
-  </si>
-  <si>
-    <t>2001-01-01T06:00:00</t>
-  </si>
-  <si>
-    <t>2001-01-01T12:00:00</t>
-  </si>
-  <si>
-    <t>2001-01-01T18:00:00</t>
-  </si>
-  <si>
-    <t>2001-01-02T00:00:00</t>
   </si>
 </sst>
 </file>
@@ -2134,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23586A81-B41F-419A-9CC9-DCB1E38C3013}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2149,124 +2134,85 @@
     <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>29</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>30</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4">
-        <v>200</v>
-      </c>
-      <c r="K4">
+      <c r="C4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>150</v>
-      </c>
-      <c r="K5">
+      <c r="C6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6">
-        <v>80</v>
-      </c>
-      <c r="K6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7">
-        <v>200</v>
-      </c>
-      <c r="K7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8">
-        <v>150</v>
-      </c>
-      <c r="K8">
+      <c r="C8">
         <v>50</v>
       </c>
     </row>
@@ -2336,6 +2282,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B227512146E4794EA3DFC577899B9574" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="102f62f00864d00911f0d8ac363b6ca3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edf6ee90-b14e-4711-bf2d-b1beadcb41f5" xmlns:ns3="588af687-a5f4-46dc-9eef-8f2d5661ca5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3a87685c95b9a647e91677dfbca7cf1" ns2:_="" ns3:_="">
     <xsd:import namespace="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
@@ -2546,27 +2512,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
+    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D886F-66F0-418B-866D-5835753D7F21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2583,23 +2548,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
-    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\Maersk_Example\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD697765-651D-4519-A427-18F04C89FF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E8A0AF-D557-4C80-8CEF-D4558A793250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="101">
   <si>
     <t>Object_Class_Name</t>
   </si>
@@ -344,6 +344,12 @@
   </si>
   <si>
     <t>demand</t>
+  </si>
+  <si>
+    <t>unit_availibility_factor</t>
+  </si>
+  <si>
+    <t>tax_out_unit_flow</t>
   </si>
 </sst>
 </file>
@@ -707,7 +713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E06231-8D06-41D8-8548-8EF76320D96E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2119,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23586A81-B41F-419A-9CC9-DCB1E38C3013}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2134,23 +2142,35 @@
     <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2160,8 +2180,14 @@
       <c r="C3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2171,8 +2197,14 @@
       <c r="C4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2182,8 +2214,14 @@
       <c r="C5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2193,8 +2231,14 @@
       <c r="C6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2248,14 @@
       <c r="C7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2214,6 +2264,12 @@
       </c>
       <c r="C8">
         <v>50</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\Maersk_Example\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E8A0AF-D557-4C80-8CEF-D4558A793250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DB1BBE-6239-4BE3-AEB9-AFF893967D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="101">
   <si>
     <t>Object_Class_Name</t>
   </si>
@@ -711,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E06231-8D06-41D8-8548-8EF76320D96E}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,6 +776,14 @@
       </c>
       <c r="B6" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2129,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23586A81-B41F-419A-9CC9-DCB1E38C3013}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2338,26 +2346,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B227512146E4794EA3DFC577899B9574" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="102f62f00864d00911f0d8ac363b6ca3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edf6ee90-b14e-4711-bf2d-b1beadcb41f5" xmlns:ns3="588af687-a5f4-46dc-9eef-8f2d5661ca5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3a87685c95b9a647e91677dfbca7cf1" ns2:_="" ns3:_="">
     <xsd:import namespace="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
@@ -2568,10 +2556,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D886F-66F0-418B-866D-5835753D7F21}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
+    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2588,20 +2607,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D886F-66F0-418B-866D-5835753D7F21}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
-    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\Maersk_Example\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DB1BBE-6239-4BE3-AEB9-AFF893967D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0ACBDF-B8BF-4A31-B8B1-0CD9A4CCD878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="102">
   <si>
     <t>Object_Class_Name</t>
   </si>
@@ -334,9 +334,6 @@
     <t>output</t>
   </si>
   <si>
-    <t>model_report</t>
-  </si>
-  <si>
     <t>connection_flow</t>
   </si>
   <si>
@@ -350,6 +347,12 @@
   </si>
   <si>
     <t>tax_out_unit_flow</t>
+  </si>
+  <si>
+    <t>model__report</t>
+  </si>
+  <si>
+    <t>Report_Results</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E06231-8D06-41D8-8548-8EF76320D96E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -793,10 +796,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0FFD16-F425-46EA-BE6D-7390D00C1F7D}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -850,7 +853,23 @@
         <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -862,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECF8EFB-268E-462A-9798-31D873EE5EEE}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -977,36 +996,36 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
         <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1020,10 +1039,10 @@
         <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2183,16 +2202,16 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
         <v>98</v>
       </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -2312,10 +2331,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">

--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\Maersk_Example\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0ACBDF-B8BF-4A31-B8B1-0CD9A4CCD878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345F95B6-B533-4C72-9D60-70BBA323E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="2" r:id="rId1"/>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECF8EFB-268E-462A-9798-31D873EE5EEE}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1876,7 +1876,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2036,7 +2036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBA0A5B-E4FE-413F-8B3A-7F0B2236AD9D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2156,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23586A81-B41F-419A-9CC9-DCB1E38C3013}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2222,7 +2224,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0.2</v>
@@ -2256,7 +2258,7 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0.8</v>
@@ -2273,7 +2275,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0.3</v>
@@ -2290,7 +2292,7 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2365,6 +2367,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B227512146E4794EA3DFC577899B9574" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="102f62f00864d00911f0d8ac363b6ca3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edf6ee90-b14e-4711-bf2d-b1beadcb41f5" xmlns:ns3="588af687-a5f4-46dc-9eef-8f2d5661ca5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3a87685c95b9a647e91677dfbca7cf1" ns2:_="" ns3:_="">
     <xsd:import namespace="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
@@ -2575,27 +2597,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
+    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D886F-66F0-418B-866D-5835753D7F21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2612,23 +2633,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
-    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\Spine_Projects\Maersk_Example\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/dahe23af_student_cbs_dk/Documents/Dokumente/GitHub/Nord_H2ub/Spine_Projects/Maersk_Example/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345F95B6-B533-4C72-9D60-70BBA323E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{345F95B6-B533-4C72-9D60-70BBA323E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B957F285-E746-4D59-9E8F-F80D6EFBDC1E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="2" r:id="rId1"/>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8198CF-B8BA-4E3C-BDFC-CD95322E57D9}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -2158,7 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23586A81-B41F-419A-9CC9-DCB1E38C3013}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2166,6 +2166,8 @@
   <cols>
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
@@ -2376,17 +2378,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B227512146E4794EA3DFC577899B9574" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="102f62f00864d00911f0d8ac363b6ca3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edf6ee90-b14e-4711-bf2d-b1beadcb41f5" xmlns:ns3="588af687-a5f4-46dc-9eef-8f2d5661ca5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3a87685c95b9a647e91677dfbca7cf1" ns2:_="" ns3:_="">
     <xsd:import namespace="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
@@ -2597,6 +2588,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
   <ds:schemaRefs>
@@ -2606,17 +2608,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
-    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D886F-66F0-418B-866D-5835753D7F21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2633,4 +2624,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
+    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/dahe23af_student_cbs_dk/Documents/Dokumente/GitHub/Nord_H2ub/Spine_Projects/Maersk_Example/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{345F95B6-B533-4C72-9D60-70BBA323E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B957F285-E746-4D59-9E8F-F80D6EFBDC1E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{345F95B6-B533-4C72-9D60-70BBA323E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4212AC-DA4D-4DEF-A09F-188D32FF8A69}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="2" r:id="rId1"/>
@@ -716,9 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E06231-8D06-41D8-8548-8EF76320D96E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -798,9 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0FFD16-F425-46EA-BE6D-7390D00C1F7D}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -881,9 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECF8EFB-268E-462A-9798-31D873EE5EEE}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1204,9 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A799C4-DA9C-4714-A630-723B6360198C}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1435,9 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608168D5-0738-458F-A88D-26E31671DE43}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1514,9 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8198CF-B8BA-4E3C-BDFC-CD95322E57D9}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1714,9 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7C13A2-FD8E-478F-BA61-51475C93DC7E}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1875,9 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1643F6E4-3605-4383-8FB3-5670E91EAFE9}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2036,9 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBA0A5B-E4FE-413F-8B3A-7F0B2236AD9D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2158,14 +2140,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23586A81-B41F-419A-9CC9-DCB1E38C3013}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
@@ -2174,6 +2155,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
@@ -2202,9 +2186,6 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
       <c r="B3" t="s">
         <v>97</v>
       </c>
@@ -2223,10 +2204,10 @@
         <v>29</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>20</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2240,10 +2221,10 @@
         <v>30</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
       </c>
       <c r="D5">
         <v>0.2</v>
@@ -2257,10 +2238,10 @@
         <v>31</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>30</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
       </c>
       <c r="D6">
         <v>0.8</v>
@@ -2274,10 +2255,10 @@
         <v>32</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>20</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
       </c>
       <c r="D7">
         <v>0.3</v>
@@ -2291,10 +2272,10 @@
         <v>33</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>25</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2312,9 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4937129D-37FF-4EB7-B39E-7B40CC16C5CB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2378,6 +2357,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B227512146E4794EA3DFC577899B9574" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="102f62f00864d00911f0d8ac363b6ca3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edf6ee90-b14e-4711-bf2d-b1beadcb41f5" xmlns:ns3="588af687-a5f4-46dc-9eef-8f2d5661ca5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3a87685c95b9a647e91677dfbca7cf1" ns2:_="" ns3:_="">
     <xsd:import namespace="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
@@ -2588,17 +2578,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="edf6ee90-b14e-4711-bf2d-b1beadcb41f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="588af687-a5f4-46dc-9eef-8f2d5661ca5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076CFCCE-199C-443B-B7C0-D7012460C8B3}">
   <ds:schemaRefs>
@@ -2608,6 +2587,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
+    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A8D886F-66F0-418B-866D-5835753D7F21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2624,15 +2614,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A615901B-11F2-4C79-A718-E36071167164}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="edf6ee90-b14e-4711-bf2d-b1beadcb41f5"/>
-    <ds:schemaRef ds:uri="588af687-a5f4-46dc-9eef-8f2d5661ca5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
+++ b/Spine_Projects/Maersk_Example/Input/Maersk_Example_Dana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/dahe23af_student_cbs_dk/Documents/Dokumente/GitHub/Nord_H2ub/Spine_Projects/Maersk_Example/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{345F95B6-B533-4C72-9D60-70BBA323E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4212AC-DA4D-4DEF-A09F-188D32FF8A69}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{345F95B6-B533-4C72-9D60-70BBA323E5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C71CAB7B-1668-40B1-AD6E-B178CDD504FD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{51DBCAFA-CEB1-4B3C-966C-9DE7E0983FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="105">
   <si>
     <t>Object_Class_Name</t>
   </si>
@@ -106,9 +106,6 @@
     <t>unit__node__node</t>
   </si>
   <si>
-    <t>unit_incremental_heat_rate</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
@@ -353,6 +350,18 @@
   </si>
   <si>
     <t>Report_Results</t>
+  </si>
+  <si>
+    <t>fix_ratio_in_in_unit_flow</t>
+  </si>
+  <si>
+    <t>connection_type_normal</t>
+  </si>
+  <si>
+    <t>connection_flow_cost</t>
+  </si>
+  <si>
+    <t>fix_ratio_in_out_unit_flow</t>
   </si>
 </sst>
 </file>
@@ -716,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E06231-8D06-41D8-8548-8EF76320D96E}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -744,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -752,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -760,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -768,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -776,15 +785,15 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
         <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -806,66 +815,66 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
         <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -888,155 +897,155 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
         <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
         <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1069,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
@@ -1078,115 +1087,115 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="str">
         <f>G2&amp;E2&amp;H2</f>
         <v>{"type": "date_time", "data": "2000-01-01T00:00:00"}</v>
       </c>
       <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="str">
         <f>G3&amp;E3&amp;H3</f>
         <v>{"type": "date_time", "data": "2000-01-02T00:00:00"}</v>
       </c>
       <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
         <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
       <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
       </c>
       <c r="F4" t="str">
         <f>G4&amp;E4&amp;H4</f>
         <v>{"type": "duration", "data": "6h"}</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
       </c>
       <c r="F5" t="str">
         <f>G5&amp;E5&amp;H5</f>
         <v>{"type": "duration", "data": "3h"}</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1240,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1254,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1268,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1282,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1296,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1310,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1324,7 +1333,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1338,13 +1347,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1352,13 +1361,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1366,13 +1375,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1380,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1394,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1408,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1456,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1470,7 +1479,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1484,7 +1493,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1492,7 +1507,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1533,16 +1554,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>304</v>
@@ -1550,16 +1571,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>52</v>
@@ -1567,16 +1588,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -1584,16 +1605,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -1601,49 +1622,49 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
       <c r="E9">
         <v>52</v>
@@ -1651,46 +1672,52 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+      <c r="E11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7C13A2-FD8E-478F-BA61-51475C93DC7E}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1731,16 +1758,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -1748,16 +1775,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -1765,80 +1792,92 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
-        <v>74</v>
+      <c r="E5">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9">
-        <v>1000</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1846,10 +1885,66 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1859,9 +1954,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1643F6E4-3605-4383-8FB3-5670E91EAFE9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1896,16 +1993,16 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1916,16 +2013,16 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1936,16 +2033,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1956,58 +2053,18 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
         <v>1</v>
       </c>
     </row>
@@ -2053,19 +2110,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2073,19 +2130,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2093,19 +2150,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2113,19 +2170,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2156,19 +2213,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2187,21 +2244,21 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2218,7 +2275,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2235,7 +2292,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2252,7 +2309,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2269,7 +2326,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2303,26 +2360,26 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2333,13 +2390,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
